--- a/public/template/retour_de_stage.xlsx
+++ b/public/template/retour_de_stage.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
   <si>
     <t>Code</t>
   </si>
@@ -508,6 +508,9 @@
     <t>Total Ministères</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Categories</t>
   </si>
   <si>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>jhjhj</t>
+  </si>
+  <si>
+    <t>2/94/1000</t>
+  </si>
+  <si>
+    <t>popo</t>
   </si>
   <si>
     <t>Catégorie Code</t>
@@ -1009,7 +1018,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2303,6 +2312,14 @@
       </c>
       <c r="B161" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>2011</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2327,7 +2344,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2340,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2348,7 +2365,7 @@
         <v>1407</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2356,7 +2373,7 @@
         <v>1408</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2364,7 +2381,7 @@
         <v>1409</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2372,7 +2389,7 @@
         <v>1410</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2380,7 +2397,7 @@
         <v>1411</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2388,7 +2405,7 @@
         <v>1412</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2396,7 +2413,15 @@
         <v>1413</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3243,6 +3268,14 @@
       </c>
       <c r="B102">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3277,49 +3310,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3327,13 +3360,13 @@
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>123</v>
@@ -3345,24 +3378,24 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L2"/>
       <c r="M2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" t="s">
         <v>192</v>
-      </c>
-      <c r="N2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3370,13 +3403,13 @@
         <v>456789</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E3">
         <v>456</v>
@@ -3385,27 +3418,27 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L3"/>
       <c r="M3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N3" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" t="s">
         <v>200</v>
-      </c>
-      <c r="N3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O3" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +3463,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,34 +3473,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3475,26 +3508,58 @@
         <v>111111</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>123456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3">
+        <v>789</v>
+      </c>
+      <c r="D3">
+        <v>-257090</v>
+      </c>
+      <c r="E3">
+        <v>109611</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3">
+        <v>2000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3530,43 +3595,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
